--- a/data_handling/data_processed/key_column_names.xlsx
+++ b/data_handling/data_processed/key_column_names.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2F79F6-EFC1-46C1-878E-D98D5C91A7D2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A8C762-9BEA-4C31-A78A-C5EABFCEE0EB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="241">
   <si>
     <t>Age</t>
   </si>
@@ -424,15 +424,341 @@
     <t>Percent of  approved studies on Prolific</t>
   </si>
   <si>
-    <t>Log</t>
+    <t>Age in years</t>
+  </si>
+  <si>
+    <t>Survey duration in seconds (Qualtrics)</t>
+  </si>
+  <si>
+    <t>Important to think new ideas and being creative</t>
+  </si>
+  <si>
+    <t>Consent given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 years age groups </t>
+  </si>
+  <si>
+    <t>Important to be rich, have money and expensive things</t>
+  </si>
+  <si>
+    <t>Important that people are treated equally and have equal opportunities</t>
+  </si>
+  <si>
+    <t>Important to show abilities and be admired</t>
+  </si>
+  <si>
+    <t>Important to live in secure and safe surroundings</t>
+  </si>
+  <si>
+    <t>Important to try new and different things in life</t>
+  </si>
+  <si>
+    <t>Important to do what is told and follow rules</t>
+  </si>
+  <si>
+    <t>Important to understand different people</t>
+  </si>
+  <si>
+    <t>Important to be humble and modest, not draw attention</t>
+  </si>
+  <si>
+    <t>Important to have a good time</t>
+  </si>
+  <si>
+    <t>Important to make own decisions and be free</t>
+  </si>
+  <si>
+    <t>Important to help people and care for others well-being</t>
+  </si>
+  <si>
+    <t>Important to be successful and that people recognize achievements</t>
+  </si>
+  <si>
+    <t>Important that government is strong and ensures safety</t>
+  </si>
+  <si>
+    <t>Important to seek adventures and have an exciting life</t>
+  </si>
+  <si>
+    <t>Important to behave properly</t>
+  </si>
+  <si>
+    <t>Important to get respect from others</t>
+  </si>
+  <si>
+    <t>Important to be loyal to friends and devote to people close</t>
+  </si>
+  <si>
+    <t>Important to care for nature and environment</t>
+  </si>
+  <si>
+    <t>Important to follow traditions and customs</t>
+  </si>
+  <si>
+    <t>Important to seek fun and things that give pleasure</t>
+  </si>
+  <si>
+    <t>Level of Education</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Description (see questionnaire for answer options)</t>
+  </si>
+  <si>
+    <t>Number of correct answers to the filter questions</t>
+  </si>
+  <si>
+    <t>Answer to filter question color</t>
+  </si>
+  <si>
+    <t>Answer to filter question country</t>
+  </si>
+  <si>
+    <t>Answer to filter question reason</t>
+  </si>
+  <si>
+    <t>Participant's gender</t>
+  </si>
+  <si>
+    <t>Condition name (empathy, structure, exploration, ess)</t>
+  </si>
+  <si>
+    <t>Dimension: HV_OpennessToChange vs. HV_Conservation</t>
+  </si>
+  <si>
+    <t>Mean of ESS8-H-D and ESS8-H-M</t>
+  </si>
+  <si>
+    <t>Mean of ESS8-H-G and ESS8-H-P</t>
+  </si>
+  <si>
+    <t>Mean of ESS8-H-L and ESS8-H-R</t>
+  </si>
+  <si>
+    <t>Mean of ESS8-H-J and ESS8-H-U</t>
+  </si>
+  <si>
+    <t>Mean of ESS8-H-B and ESS8-H-Q</t>
+  </si>
+  <si>
+    <t>Mean of ESS8-H-E and ESS8-H-N</t>
+  </si>
+  <si>
+    <t>Mean of ESS8-H-A and ESS8-H-K</t>
+  </si>
+  <si>
+    <t>Mean of ESS8-H-F and ESS8-H-O</t>
+  </si>
+  <si>
+    <t>Mean of ESS8-H-I and ESS8-H-T</t>
+  </si>
+  <si>
+    <t>Mean of ESS8-H-C, ESS8-H-H, and ESS8-H-S</t>
+  </si>
+  <si>
+    <t>Individual’s mean score over all 21 value items</t>
+  </si>
+  <si>
+    <t>Dimension: HV_SelfEnhancement vs. HV_SelfTranscendence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Higher-order Value: Mean of </t>
+  </si>
+  <si>
+    <t>Higher-order Value: Mean of HV_Self-Direction, HV_Stimulation, and HV_Hedonism</t>
+  </si>
+  <si>
+    <t>Higher-order Value: Mean of HV_Security, HV_Conformity, and HV_Tradition</t>
+  </si>
+  <si>
+    <t>Number how often participant selected answer option prefer not to say for human values</t>
+  </si>
+  <si>
+    <t>Number how often participant selected answer option 1 for human values</t>
+  </si>
+  <si>
+    <t>Number how often participant selected answer option 2 for human values</t>
+  </si>
+  <si>
+    <t>Number how often participant selected answer option 3 for human values</t>
+  </si>
+  <si>
+    <t>Number how often participant selected answer option 4 for human values</t>
+  </si>
+  <si>
+    <t>Number how often participant selected answer option 5 for human values</t>
+  </si>
+  <si>
+    <t>Number how often participant selected answer option 6 for human values</t>
+  </si>
+  <si>
+    <t>Maximum of HV_Option_1, HV_Option_2, HV_Option_3, HV_Option_4, HV_Option_5, HV_Option_6</t>
+  </si>
+  <si>
+    <t>Experiment 1 (1), Experiment 2 (2), ESS (0)</t>
+  </si>
+  <si>
+    <t>UK Region</t>
+  </si>
+  <si>
+    <t>Participant's unique identifier (Qualtrics)</t>
+  </si>
+  <si>
+    <t>Year-Month-Day of survey</t>
+  </si>
+  <si>
+    <t>Political position on an 11-point scale from "left" to "right"</t>
+  </si>
+  <si>
+    <t>Degree of religiosity on an 11-point scale from "not at all" to "very"</t>
+  </si>
+  <si>
+    <t>Ability to live on current income</t>
+  </si>
+  <si>
+    <t>Interaction log from stimuli pahse (JSON Object)</t>
+  </si>
+  <si>
+    <t>Condition number: 1 (exploration), 2 (structure), 3 (empathy), 0 (ess)</t>
+  </si>
+  <si>
+    <t>Qualtiative feedback at survey end</t>
+  </si>
+  <si>
+    <t>Variance of 21 Human Value questions</t>
+  </si>
+  <si>
+    <t>Avergage time in seconds answering a human value question</t>
+  </si>
+  <si>
+    <t>Maximum time in seconds answering a human value question</t>
+  </si>
+  <si>
+    <t>Median time in seconds answering a human value question</t>
+  </si>
+  <si>
+    <t>Minimum time in seconds answering a human value question</t>
+  </si>
+  <si>
+    <t>Number of human value questions answered  in less than a second</t>
+  </si>
+  <si>
+    <t>Number of human value questions answered  in less than two seconds</t>
+  </si>
+  <si>
+    <t>Number of human value questions answered in less than three seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total time in seconds to answer all 21 human value questions </t>
+  </si>
+  <si>
+    <t>Post stimulus perceived cultural threat</t>
+  </si>
+  <si>
+    <t>Post stimulus perceived economic threat</t>
+  </si>
+  <si>
+    <t>Post stimulus perceived overall threat</t>
+  </si>
+  <si>
+    <t>Number of perceived threat questions answered with prefer not to say</t>
+  </si>
+  <si>
+    <t>Number of immigration questions (opposition + perceived threat) answered with prefer not to say</t>
+  </si>
+  <si>
+    <t>Number of oppostition questions answered with prefer not to say</t>
+  </si>
+  <si>
+    <t>Mean of IM_POST_Opposition_Same, IM_POST_Opposition_Different, IM_POST_Opposition_PoorerOutEurope</t>
+  </si>
+  <si>
+    <t>Median of IM_POST_Opposition_Same, IM_POST_Opposition_Different, IM_POST_Opposition_PoorerOutEurope</t>
+  </si>
+  <si>
+    <t>Sum of IM_POST_Opposition_Same, IM_POST_Opposition_Different, IM_POST_Opposition_PoorerOutEurope</t>
+  </si>
+  <si>
+    <t>Mean of IM_POST_Opposition_Same, IM_POST_Opposition_Different, IM_POST_Opposition_PoorerInEurope, IM_POST_Opposition_PoorerOutEurope</t>
+  </si>
+  <si>
+    <t>Sum of IM_POST_Opposition_Same, IM_POST_Opposition_Different, IM_POST_Opposition_PoorerInEurope, IM_POST_Opposition_PoorerOutEurope</t>
+  </si>
+  <si>
+    <t>Median of IM_POST_Opposition_Same, IM_POST_Opposition_Different, IM_POST_Opposition_PoorerInEurope, IM_POST_Opposition_PoorerOutEurope</t>
+  </si>
+  <si>
+    <t>Compare to POST, PRE only in experiment 1</t>
+  </si>
+  <si>
+    <t>Post stimulus opposition to "different people" coming to UK</t>
+  </si>
+  <si>
+    <t>Post stimulus opposition to "same people" coming to UK</t>
+  </si>
+  <si>
+    <t>Post stimulus opposition to "poorer european people" coming to UK</t>
+  </si>
+  <si>
+    <t>Post stimulus opposition to "poorer non european people" coming to UK</t>
+  </si>
+  <si>
+    <t>Mean of IM_POST_Cultural_Threat, IM_POST_Economic_Threat, and IM_POST_Overall_Threat</t>
+  </si>
+  <si>
+    <t>Median of IM_POST_Cultural_Threat, IM_POST_Economic_Threat, and IM_POST_Overall_Threat</t>
+  </si>
+  <si>
+    <t>Sum of IM_POST_Cultural_Threat, IM_POST_Economic_Threat, and IM_POST_Overall_Threat</t>
+  </si>
+  <si>
+    <t>Number of immigration questions answered  in less than a second</t>
+  </si>
+  <si>
+    <t>Number of immigration questions answered  in less than two seconds</t>
+  </si>
+  <si>
+    <t>Number of immigration questions answered in less than three seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total time in seconds to answer all 7 immigration questions </t>
+  </si>
+  <si>
+    <t>Time of engagement with exploration phase</t>
+  </si>
+  <si>
+    <t>Number of logged interactions</t>
+  </si>
+  <si>
+    <t>Duration of visualisation phase</t>
+  </si>
+  <si>
+    <t>Time of transition from storytelling to exploration phase</t>
+  </si>
+  <si>
+    <t>Time of clikcing OK before exploratory phase</t>
+  </si>
+  <si>
+    <t>Time of visibilty of Popup (OK minus Transition)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -460,8 +786,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,686 +1072,1076 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B131"/>
+  <dimension ref="A1:B132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="39.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.9296875" customWidth="1"/>
+    <col min="2" max="2" width="122.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
+      <c r="B51" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+      <c r="B55" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
+      <c r="B58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
+      <c r="B62" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
+      <c r="B63" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
+      <c r="B65" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
+      <c r="B69" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
+      <c r="B74" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
+      <c r="B75" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
+      <c r="B76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
+      <c r="B77" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
+      <c r="B78" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
+      <c r="B79" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
+      <c r="B80" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
+      <c r="B81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
+      <c r="B82" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
+      <c r="B83" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
+      <c r="B84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
+      <c r="B85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
+      <c r="B86" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
+      <c r="B87" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
+      <c r="B88" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
+      <c r="B89" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
+      <c r="B90" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
+      <c r="B91" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A92" t="s">
+      <c r="B92" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
+      <c r="B93" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A94" t="s">
+      <c r="B94" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A95" t="s">
+      <c r="B95" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A96" t="s">
+      <c r="B96" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
+      <c r="B97" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A98" t="s">
+      <c r="B98" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A99" t="s">
+      <c r="B99" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A100" t="s">
+      <c r="B100" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A101" t="s">
+      <c r="B101" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A102" t="s">
+      <c r="B102" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
+      <c r="B103" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A104" t="s">
+      <c r="B104" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
+      <c r="B105" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
+      <c r="B106" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A107" t="s">
+      <c r="B107" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A108" t="s">
+      <c r="B108" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A109" t="s">
+      <c r="B109" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A110" t="s">
+      <c r="B110" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A111" t="s">
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A112" t="s">
-        <v>111</v>
+      <c r="B112" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>134</v>
+        <v>238</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>131</v>
+        <v>199</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
         <v>130</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
         <v>133</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data_handling/data_processed/key_column_names.xlsx
+++ b/data_handling/data_processed/key_column_names.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A8C762-9BEA-4C31-A78A-C5EABFCEE0EB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D139776-AE5A-4131-B770-81F9C684B697}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -520,9 +520,6 @@
     <t>Answer to filter question reason</t>
   </si>
   <si>
-    <t>Participant's gender</t>
-  </si>
-  <si>
     <t>Condition name (empathy, structure, exploration, ess)</t>
   </si>
   <si>
@@ -743,6 +740,9 @@
   </si>
   <si>
     <t>Time of visibilty of Popup (OK minus Transition)</t>
+  </si>
+  <si>
+    <t>Participant's gender: 1 (male), 2 (female)</t>
   </si>
 </sst>
 </file>
@@ -1074,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1113,7 +1113,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -1345,7 +1345,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>166</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -1353,7 +1353,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
@@ -1361,7 +1361,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -1369,7 +1369,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -1377,7 +1377,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -1385,7 +1385,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -1393,7 +1393,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -1401,7 +1401,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -1409,7 +1409,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -1417,7 +1417,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -1425,7 +1425,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -1433,7 +1433,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -1441,7 +1441,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -1449,7 +1449,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -1457,7 +1457,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -1465,7 +1465,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -1473,7 +1473,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -1481,7 +1481,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -1489,7 +1489,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -1497,7 +1497,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -1505,7 +1505,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
@@ -1513,7 +1513,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -1521,7 +1521,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -1529,7 +1529,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -1537,7 +1537,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -1545,7 +1545,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
@@ -1553,7 +1553,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -1561,7 +1561,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -1569,7 +1569,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -1577,7 +1577,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
@@ -1585,7 +1585,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
@@ -1593,7 +1593,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
@@ -1601,7 +1601,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
@@ -1609,7 +1609,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
@@ -1617,7 +1617,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
@@ -1625,7 +1625,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
@@ -1633,7 +1633,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
@@ -1641,7 +1641,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
@@ -1649,7 +1649,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
@@ -1657,7 +1657,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
@@ -1665,7 +1665,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
@@ -1673,7 +1673,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
@@ -1681,7 +1681,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
@@ -1689,7 +1689,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
@@ -1697,7 +1697,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
@@ -1705,7 +1705,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
@@ -1713,7 +1713,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
@@ -1721,7 +1721,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
@@ -1729,7 +1729,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
@@ -1737,7 +1737,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
@@ -1745,7 +1745,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
@@ -1753,7 +1753,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
@@ -1761,7 +1761,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
@@ -1769,7 +1769,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
@@ -1777,7 +1777,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
@@ -1785,7 +1785,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
@@ -1793,7 +1793,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
@@ -1801,7 +1801,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
@@ -1809,7 +1809,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
@@ -1817,7 +1817,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
@@ -1825,7 +1825,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
@@ -1833,7 +1833,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
@@ -1841,7 +1841,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
@@ -1849,7 +1849,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
@@ -1857,7 +1857,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
@@ -1865,7 +1865,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
@@ -1873,7 +1873,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
@@ -1881,7 +1881,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
@@ -1889,7 +1889,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
@@ -1897,7 +1897,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
@@ -1905,7 +1905,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
@@ -1913,7 +1913,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
@@ -1921,7 +1921,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
@@ -1929,7 +1929,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
@@ -1937,7 +1937,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
@@ -1945,7 +1945,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
@@ -1953,7 +1953,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
@@ -1961,7 +1961,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
@@ -1969,7 +1969,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
@@ -1977,7 +1977,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
@@ -1985,7 +1985,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
@@ -1993,7 +1993,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
@@ -2001,7 +2001,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
@@ -2009,7 +2009,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
@@ -2017,7 +2017,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
@@ -2025,7 +2025,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
@@ -2033,7 +2033,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
@@ -2041,7 +2041,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
@@ -2049,7 +2049,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
@@ -2057,7 +2057,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
@@ -2065,7 +2065,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
@@ -2073,7 +2073,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
@@ -2081,7 +2081,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
@@ -2089,7 +2089,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
@@ -2097,7 +2097,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
@@ -2105,7 +2105,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
@@ -2113,7 +2113,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
